--- a/舰娘数据库表结构.xlsx
+++ b/舰娘数据库表结构.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>kanmusu_equipment_main_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment_pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.zjsnrwiki.com/wiki/%E6%96%87%E4%BB%B6:Equip_L_1.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +306,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,10 +334,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,9 +358,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -365,8 +390,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:C26" totalsRowShown="0">
-  <autoFilter ref="A3:C26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:C27" totalsRowShown="0">
+  <autoFilter ref="A3:C27"/>
   <tableColumns count="3">
     <tableColumn id="1" name="字段名" dataDxfId="2"/>
     <tableColumn id="2" name="中文简介" dataDxfId="1"/>
@@ -890,7 +915,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -1212,15 +1237,29 @@
         <v>32</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/舰娘数据库表结构.xlsx
+++ b/舰娘数据库表结构.xlsx
@@ -16,6 +16,7 @@
     <sheet name="装备表" sheetId="8" r:id="rId7"/>
     <sheet name="远征表" sheetId="9" r:id="rId8"/>
     <sheet name="战役表" sheetId="10" r:id="rId9"/>
+    <sheet name="值列表" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,11 +250,356 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成任务“乌兰○托附近水域(1-5)的恶魔”奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kanmusu_equipment_main_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hm数据字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一包辣条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据猜测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[2,3,3,3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成任务“乌兰○托附近水域(1-5)的恶魔”奖励</t>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handbookType</t>
+  </si>
+  <si>
+    <t>0深海1正常可获得2未开放或其他</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 98, 99]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰炸机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼雷攻击机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦察机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防空炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管损</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反潜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油弹钢铝(2,3,4,9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2/0.35……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰船类型值列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲航母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正规航母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型航母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战列巡洋舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战列舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重巡洋舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻巡洋舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅水重炮舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱逐舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重炮潜艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补给舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空战列舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重雷装巡洋舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空战列舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口</t>
+  </si>
+  <si>
+    <t>equipIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismantle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'3': 3, '4': 3, '9': 3, '2': 2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torpedo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antisub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aircraftAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,31 +607,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>airDefCorrect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>equipment_special_effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特殊效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kanmusu_equipment_main_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment_pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.zjsnrwiki.com/wiki/%E6%96%87%E4%BB%B6:Equip_L_1.png</t>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,12 +643,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.3"/>
+      <color rgb="FF00B580"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -336,9 +684,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,18 +703,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -390,14 +759,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:C27" totalsRowShown="0">
-  <autoFilter ref="A3:C27"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="字段名" dataDxfId="2"/>
-    <tableColumn id="2" name="中文简介" dataDxfId="1"/>
-    <tableColumn id="3" name="实例" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:G27" totalsRowShown="0">
+  <autoFilter ref="A3:G27"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="字段名" dataDxfId="4"/>
+    <tableColumn id="2" name="中文简介" dataDxfId="3"/>
+    <tableColumn id="3" name="实例" dataDxfId="2"/>
+    <tableColumn id="4" name="hm数据字段" dataDxfId="1"/>
+    <tableColumn id="5" name="举例"/>
+    <tableColumn id="6" name="数据猜测" dataDxfId="0"/>
+    <tableColumn id="7" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:B15" totalsRowShown="0">
+  <autoFilter ref="A2:B15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="装备值"/>
+    <tableColumn id="2" name="装备名"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="D2:E7" totalsRowShown="0">
+  <autoFilter ref="D2:E7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="射程值"/>
+    <tableColumn id="2" name="射程名"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="G2:H6" totalsRowShown="0">
+  <autoFilter ref="G2:H6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="废弃值"/>
+    <tableColumn id="2" name="废弃名"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="J2:K20" totalsRowShown="0">
+  <autoFilter ref="J2:K20"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="值"/>
+    <tableColumn id="2" name="名称"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -738,6 +1155,355 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>99</v>
+      </c>
+      <c r="K20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
@@ -918,16 +1684,17 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85" customWidth="1"/>
-    <col min="4" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
@@ -948,10 +1715,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="6"/>
+      <c r="B1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -983,6 +1750,18 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -991,9 +1770,16 @@
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1005,6 +1791,13 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1016,6 +1809,13 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1027,8 +1827,17 @@
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -1037,6 +1846,15 @@
       </c>
       <c r="C8" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1047,8 +1865,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -1060,6 +1880,8 @@
       <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1071,6 +1893,8 @@
       <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1082,6 +1906,15 @@
       <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1093,6 +1926,13 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1104,6 +1944,13 @@
       <c r="C14" s="5">
         <v>0</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1115,6 +1962,13 @@
       <c r="C15" s="5">
         <v>0</v>
       </c>
+      <c r="D15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1126,8 +1980,15 @@
       <c r="C16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -1137,8 +1998,15 @@
       <c r="C17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -1148,8 +2016,15 @@
       <c r="C18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -1159,8 +2034,15 @@
       <c r="C19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -1170,8 +2052,15 @@
       <c r="C20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -1181,8 +2070,15 @@
       <c r="C21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1192,10 +2088,17 @@
       <c r="C22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
@@ -1203,19 +2106,32 @@
       <c r="C23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1223,10 +2139,19 @@
         <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1236,16 +2161,23 @@
       <c r="C26" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>64</v>
+      <c r="D26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1254,12 +2186,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1"/>
+    <hyperlink ref="F12" location="值列表!A1" display="参考值列表"/>
+    <hyperlink ref="F25" location="值列表!A1" display="油弹钢铝(2,3,4,9)"/>
+    <hyperlink ref="F7" location="值列表!A1" display="参考值列表"/>
+    <hyperlink ref="F8" location="值列表!A1" display="参考值列表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/舰娘数据库表结构.xlsx
+++ b/舰娘数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="舰娘主表" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="远征表" sheetId="9" r:id="rId8"/>
     <sheet name="战役表" sheetId="10" r:id="rId9"/>
     <sheet name="值列表" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="150">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,6 +621,10 @@
   </si>
   <si>
     <t>desc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjsn1234!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1123,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1501,6 +1506,28 @@
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1683,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
